--- a/biology/Médecine/Nicolas_Husson/Nicolas_Husson.xlsx
+++ b/biology/Médecine/Nicolas_Husson/Nicolas_Husson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nicolas Husson, né le 11 février 1814 et mort le 28 mars 1890 à Toul (Meurthe), est un pharmacien toulois, passionné d'archéologie, géologie, paléontologie et spéléologie.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de François-Joseph Husson et de Catherine Thiébaut, issue d'une vieille famille touloise. Le 25 février 1840, à Pont-à-Mousson, il épouse Marie-Fanie Masson, née le 23 novembre 1818. Ils auront un unique enfant, Camille.
-Ancien élève de l'École de pharmacie de Paris, Nicolas Husson fut membre correspondant de la Société de pharmacie de Paris, de la Société de médecine de Nancy et de l'Académie de Stanislas. Il fut adjoint au maire de la ville de Toul[1].
+Ancien élève de l'École de pharmacie de Paris, Nicolas Husson fut membre correspondant de la Société de pharmacie de Paris, de la Société de médecine de Nancy et de l'Académie de Stanislas. Il fut adjoint au maire de la ville de Toul.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Hommage toponymique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en l'honneur de Nicolas Husson et de son esquisse géologique de 1848 que les calcaires oolithiques à polypiers de l'étage stratigraphique Bajocien ont été nommés « Calcaires à Polypiers de Husson »[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en l'honneur de Nicolas Husson et de son esquisse géologique de 1848 que les calcaires oolithiques à polypiers de l'étage stratigraphique Bajocien ont été nommés « Calcaires à Polypiers de Husson »,.
 </t>
         </is>
       </c>
@@ -574,13 +590,15 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nicolas Husson est le premier explorateur des grottes de Pierre-la-Treiche dans la seconde moitié du XIXe siècle. Son but est d'« établir l'ancienneté de l'homme d'après les alluvions de la Moselle »[4] dans la région.
-On lui doit l'exploration et la désobstruction des grottes Sainte-Reine et des Celtes à Pierre-la-Treiche, du Géant à Gondreville, des Fées à Liverdun et de la Grosse-Roche à Aingeray[5].
-Lors de ses explorations débutées en 1863[6] il a découvert plusieurs ossements d'animaux préhistoriques (mâchoires, fémurs, humérus, cubitus, côtes... d'ours des cavernes, dents et débris d'ossements de hyène des cavernes) et des traces d'occupation humaine (ancien foyer, os travaillés, ossements, tessons de poterie, silex taillés, amulette en bois de cerf ou de renne, vase en verre bleu émaillé d'époque romaine...).
-Il fut aidé dans ses recherches par son fils Camille et a travaillé de concert avec Alexandre Godron, ce dernier ayant établi l'historique des recherches dans une publication en 1878[7].
-En géologie il « étudie les stratigraphies quaternaires des environs de Toul »[4] et décrit l'étage des calcaires à polypiers dits de Husson.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Husson est le premier explorateur des grottes de Pierre-la-Treiche dans la seconde moitié du XIXe siècle. Son but est d'« établir l'ancienneté de l'homme d'après les alluvions de la Moselle » dans la région.
+On lui doit l'exploration et la désobstruction des grottes Sainte-Reine et des Celtes à Pierre-la-Treiche, du Géant à Gondreville, des Fées à Liverdun et de la Grosse-Roche à Aingeray.
+Lors de ses explorations débutées en 1863 il a découvert plusieurs ossements d'animaux préhistoriques (mâchoires, fémurs, humérus, cubitus, côtes... d'ours des cavernes, dents et débris d'ossements de hyène des cavernes) et des traces d'occupation humaine (ancien foyer, os travaillés, ossements, tessons de poterie, silex taillés, amulette en bois de cerf ou de renne, vase en verre bleu émaillé d'époque romaine...).
+Il fut aidé dans ses recherches par son fils Camille et a travaillé de concert avec Alexandre Godron, ce dernier ayant établi l'historique des recherches dans une publication en 1878.
+En géologie il « étudie les stratigraphies quaternaires des environs de Toul » et décrit l'étage des calcaires à polypiers dits de Husson.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>On dénombre une quarantaine de publications. Du fait du métier, lieu d'exercice et passion communs avec son fils Camille, de nombreux ouvrages sont attribués par erreur au fils, en particulier l'ensemble des études archéologiques, géologiques, paléontologiques et spéléologiques menées sur le Toulois et publiées entre 1846 (Camille avait alors 3 ans !) et 1880... Globalement la quasi-totalité des ouvrages et communications signés Husson sont à attribuer à Nicolas ; ceux du fils font apparaître C. ou Camille ou Camille Louis ou Husson fils.
 (1838) - « Note au sujet de la falsification des vinaigres par l'acide sulfurique », Pharm. Chim. no 24, p. 556-559
